--- a/biology/Médecine/1424_en_santé_et_médecine/1424_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1424_en_santé_et_médecine/1424_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1424_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1424_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1424 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1424_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1424_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23 juillet : charte de fondation à Cuéllar en Castille, par Gómez González, d'un hôpital dédié aux « pauvres honteux[1] » et placé sous l'invocation de sainte Marie-Madeleine (Hospital de Santa María Magdalena (es)[2],[3]).
-4 novembre : le prévôt de Paris revient sur son arrêté de l'année 1423 précédente, par où il interdisait aux barbiers l'exercice de la chirurgie[4].
-La faculté de médecine de Gray, fondée en 1287 en Franche-Comté par Othon IV, comte palatin de Bourgogne, est transférée à l'université de Dole qui vient d'être créée en 1422 par Philippe le Bon[5].
-À Bruxelles, en Flandre, un acte soumet l'exercice de la médecine à un examen dont le jury inclut tous les médecins titulaires d'un grade universitaire, le chirurgien officiel de la ville et les barbiers les plus notoires[6].
-Fondation par Richard Whittington d'une maison d'aumône destinée à recevoir treize pauvres citoyens de Londres et  qui persistera jusqu'au XVIIIe siècle au lieu-même de sa fondation[7].
-L'hôpital Paquay ou Saint-Séverin est attesté à Liège, sur la route de la Hesbaye, pour « accueillir les pauvres errants, les pèlerins et assurer le gîte et certaines distributions de vivres aux pauvres de la paroisse[8] ».
-Vers 1424 : fondation probable, par l'évêque William Heyworth (en) de la maison d'aumône qui est à l'origine de l'actuel Dr Milley's Hospital (en)) de Lichfield dans le comté de Stafford en Angleterre[9].
-1422-1424 : fondation à Grenoble par l'évêque Aymon Ier de Chissé de l'hôpital Notre-Dame, futur hôpital général de la ville[10].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23 juillet : charte de fondation à Cuéllar en Castille, par Gómez González, d'un hôpital dédié aux « pauvres honteux » et placé sous l'invocation de sainte Marie-Madeleine (Hospital de Santa María Magdalena (es),).
+4 novembre : le prévôt de Paris revient sur son arrêté de l'année 1423 précédente, par où il interdisait aux barbiers l'exercice de la chirurgie.
+La faculté de médecine de Gray, fondée en 1287 en Franche-Comté par Othon IV, comte palatin de Bourgogne, est transférée à l'université de Dole qui vient d'être créée en 1422 par Philippe le Bon.
+À Bruxelles, en Flandre, un acte soumet l'exercice de la médecine à un examen dont le jury inclut tous les médecins titulaires d'un grade universitaire, le chirurgien officiel de la ville et les barbiers les plus notoires.
+Fondation par Richard Whittington d'une maison d'aumône destinée à recevoir treize pauvres citoyens de Londres et  qui persistera jusqu'au XVIIIe siècle au lieu-même de sa fondation.
+L'hôpital Paquay ou Saint-Séverin est attesté à Liège, sur la route de la Hesbaye, pour « accueillir les pauvres errants, les pèlerins et assurer le gîte et certaines distributions de vivres aux pauvres de la paroisse ».
+Vers 1424 : fondation probable, par l'évêque William Heyworth (en) de la maison d'aumône qui est à l'origine de l'actuel Dr Milley's Hospital (en)) de Lichfield dans le comté de Stafford en Angleterre.
+1422-1424 : fondation à Grenoble par l'évêque Aymon Ier de Chissé de l'hôpital Notre-Dame, futur hôpital général de la ville.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1424_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1424_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gilbert Kymer (en) († 1463), médecin anglais, professeur à Oxford, au service de Humphrey de Lancastre, puis des rois Henri VI et Édouard IV, publie son Dietarium de sanitatis custodia, régime de santé « entièrement consacré à la seule diététique conservative[11] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gilbert Kymer (en) († 1463), médecin anglais, professeur à Oxford, au service de Humphrey de Lancastre, puis des rois Henri VI et Édouard IV, publie son Dietarium de sanitatis custodia, régime de santé « entièrement consacré à la seule diététique conservative ».</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1424_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1424_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1414-1424 : fl. Aymar Rey, Amalvin de Saint-Martin et Estève Deu Mas, maîtres barbiers à Bordeaux[12].
-1424-1446 : fl. Étienne Manissier, barbier, à Lyon, plusieurs fois « élu maître du métier[12]. ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1414-1424 : fl. Aymar Rey, Amalvin de Saint-Martin et Estève Deu Mas, maîtres barbiers à Bordeaux.
+1424-1446 : fl. Étienne Manissier, barbier, à Lyon, plusieurs fois « élu maître du métier. ».</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1424_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1424_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Antonio Torriani (ou della Torre) da L'Aquila (mort en 1494), médecin padouan entré en religion et béatifié par l'Église catholique[13].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Antonio Torriani (ou della Torre) da L'Aquila (mort en 1494), médecin padouan entré en religion et béatifié par l'Église catholique.</t>
         </is>
       </c>
     </row>
